--- a/doc/theory_pics/Figure 1.xlsx
+++ b/doc/theory_pics/Figure 1.xlsx
@@ -276,7 +276,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scheduled receiving bus's actual trajectory</c:v>
+                  <c:v>Actual receiving bus's scheduled trajectory</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -284,7 +284,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -349,7 +349,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual receiving bus's scheduled trajectory</c:v>
+                  <c:v>Scheduled receiving bus's actual trajectory</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -357,7 +357,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -1426,10 +1426,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1439,10 +1443,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/doc/theory_pics/Figure 1.xlsx
+++ b/doc/theory_pics/Figure 1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="_xltb_storage_" sheetId="2" state="veryHidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Actual receiving bus's scheduled trajectory</t>
   </si>
@@ -31,6 +32,30 @@
   </si>
   <si>
     <t>Actual transfer trajectory</t>
+  </si>
+  <si>
+    <t>XL Toolbox Settings</t>
+  </si>
+  <si>
+    <t>export_preset</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;_x000D_
+&lt;Preset xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;_x000D_
+  &lt;Name&gt;Png, 500 dpi, RGB, Transparent canvas&lt;/Name&gt;_x000D_
+  &lt;Dpi&gt;500&lt;/Dpi&gt;_x000D_
+  &lt;FileType&gt;Png&lt;/FileType&gt;_x000D_
+  &lt;ColorSpace&gt;Rgb&lt;/ColorSpace&gt;_x000D_
+  &lt;Transparency&gt;TransparentCanvas&lt;/Transparency&gt;_x000D_
+  &lt;UseColorProfile&gt;false&lt;/UseColorProfile&gt;_x000D_
+  &lt;ColorProfile&gt;P2717H&lt;/ColorProfile&gt;_x000D_
+&lt;/Preset&gt;</t>
+  </si>
+  <si>
+    <t>export_path</t>
+  </si>
+  <si>
+    <t>C:\Users\liu.6544\Documents\GitHub\transfer\doc\theory_pics\picture_1_raw.png</t>
   </si>
 </sst>
 </file>
@@ -66,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,7 +129,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8392687608242164E-2"/>
+          <c:y val="3.0942327886346637E-2"/>
+          <c:w val="0.92474909136540939"/>
+          <c:h val="0.7246597949744078"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -122,7 +160,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -284,7 +322,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -357,7 +395,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -446,6 +484,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>x: Space</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48817796968927263"/>
+              <c:y val="0.83009859248759676"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -475,6 +576,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>y: Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9619433333729015E-2"/>
+              <c:y val="0.33690780506751394"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -498,9 +662,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.1880916034422654E-3"/>
-          <c:y val="0.87347215965916103"/>
+          <c:y val="0.88145396161131739"/>
           <c:w val="0.98463895060679429"/>
-          <c:h val="0.10558543771957574"/>
+          <c:h val="0.11854603838868258"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -516,7 +680,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -566,6 +730,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1129,16 +1294,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1157,7 +1322,864 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>153699</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>151686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>153699</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12423090" y="1675686"/>
+          <a:ext cx="0" cy="3469049"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>602705</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11727656" y="5143500"/>
+          <a:ext cx="1144440" cy="305501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Receiving</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> stop</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>147478</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Left Brace 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12209859" y="2708672"/>
+          <a:ext cx="207010" cy="1035844"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 60443"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>545306</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>145097</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Left Brace 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12207478" y="2366962"/>
+          <a:ext cx="207010" cy="335757"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 60443"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160734</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>334724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Brace 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12430125" y="2369344"/>
+          <a:ext cx="173990" cy="1369218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>606504</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Text Box 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11775281" y="2405062"/>
+              <a:ext cx="493395" cy="314325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" i="1">
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" i="1">
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" i="1">
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Text Box 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11775281" y="2405062"/>
+              <a:ext cx="493395" cy="314325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑_𝑟</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>92868</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>586263</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55959</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Text Box 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11755040" y="3170634"/>
+              <a:ext cx="493395" cy="314325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴𝑇𝑃</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Text Box 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11755040" y="3170634"/>
+              <a:ext cx="493395" cy="314325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴𝑇𝑃</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190976</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Text Box 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12574190" y="2900362"/>
+              <a:ext cx="493395" cy="314325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑇𝑇𝑃</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Text Box 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12574190" y="2900362"/>
+              <a:ext cx="493395" cy="314325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇𝑇𝑃</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26904</cdr:x>
+      <cdr:y>0.75485</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4338</cdr:x>
+      <cdr:y>0.81561</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Text Box 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2224360" y="3603201"/>
+          <a:ext cx="1362168" cy="290028"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" algn="ctr">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Generating</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>stop</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36628</cdr:x>
+      <cdr:y>0.02941</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.36628</cdr:x>
+      <cdr:y>0.75614</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3023959" y="140404"/>
+          <a:ext cx="0" cy="3468928"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1423,10 +2445,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/theory_pics/Figure 1.xlsx
+++ b/doc/theory_pics/Figure 1.xlsx
@@ -40,11 +40,14 @@
     <t>export_preset</t>
   </si>
   <si>
+    <t>export_path</t>
+  </si>
+  <si>
     <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;_x000D_
 &lt;Preset xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;_x000D_
-  &lt;Name&gt;Png, 500 dpi, RGB, Transparent canvas&lt;/Name&gt;_x000D_
-  &lt;Dpi&gt;500&lt;/Dpi&gt;_x000D_
-  &lt;FileType&gt;Png&lt;/FileType&gt;_x000D_
+  &lt;Name&gt;Emf&lt;/Name&gt;_x000D_
+  &lt;Dpi&gt;800&lt;/Dpi&gt;_x000D_
+  &lt;FileType&gt;Emf&lt;/FileType&gt;_x000D_
   &lt;ColorSpace&gt;Rgb&lt;/ColorSpace&gt;_x000D_
   &lt;Transparency&gt;TransparentCanvas&lt;/Transparency&gt;_x000D_
   &lt;UseColorProfile&gt;false&lt;/UseColorProfile&gt;_x000D_
@@ -52,10 +55,7 @@
 &lt;/Preset&gt;</t>
   </si>
   <si>
-    <t>export_path</t>
-  </si>
-  <si>
-    <t>C:\Users\liu.6544\Documents\GitHub\transfer\doc\theory_pics\picture_1_raw.png</t>
+    <t>C:\Users\liu.6544\Documents\GitHub\transfer\pic\figure_1.emf</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1378,13 +1378,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>65484</xdr:colOff>
+      <xdr:colOff>65483</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>602705</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219807</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>115001</xdr:rowOff>
     </xdr:to>
@@ -1395,8 +1395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11727656" y="5143500"/>
-          <a:ext cx="1144440" cy="305501"/>
+          <a:off x="11744598" y="5143500"/>
+          <a:ext cx="1370594" cy="305501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,14 +1472,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
             <a:t>Receiving</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
             <a:t> stop</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1671,146 +1677,55 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>113109</xdr:colOff>
+      <xdr:colOff>157071</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>126389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>606504</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42331</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>59714</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Text Box 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11775281" y="2405062"/>
-              <a:ext cx="493395" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-              </a:pPr>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" i="1">
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑑</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑟</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200">
-                <a:effectLst/>
-                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
-                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Text Box 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11775281" y="2405062"/>
-              <a:ext cx="493395" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑑_𝑟</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200">
-                <a:effectLst/>
-                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
-                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11836186" y="2412389"/>
+          <a:ext cx="493395" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:effectLst/>
+              <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+              <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>dr</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1826,268 +1741,27 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>55959</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Text Box 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11755040" y="3170634"/>
-              <a:ext cx="493395" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-              </a:pPr>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝐴𝑇𝑃</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200">
-                <a:effectLst/>
-                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
-                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Text Box 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11755040" y="3170634"/>
-              <a:ext cx="493395" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐴𝑇𝑃</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200">
-                <a:effectLst/>
-                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
-                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>190976</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Text Box 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12574190" y="2900362"/>
-              <a:ext cx="493395" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-              </a:pPr>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑇𝑇𝑃</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200">
-                <a:effectLst/>
-                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
-                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Text Box 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12574190" y="2900362"/>
-              <a:ext cx="493395" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑇𝑇𝑃</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200">
-                <a:effectLst/>
-                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
-                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.26904</cdr:x>
-      <cdr:y>0.75485</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.4338</cdr:x>
-      <cdr:y>0.81561</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Text Box 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2224360" y="3603201"/>
-          <a:ext cx="1362168" cy="290028"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11755040" y="3170634"/>
+          <a:ext cx="493395" cy="314325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0">
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" algn="ctr">
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2098,39 +1772,197 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:effectLst/>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
               <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Generating</a:t>
+            <a:t>ATP</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1050">
-              <a:effectLst/>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>356087</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>242264</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12643337" y="2900362"/>
+          <a:ext cx="494312" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:effectLst/>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
               <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>stop</a:t>
+            <a:t>TTP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>540267</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>86457</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106209</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9178709" y="5134708"/>
+          <a:ext cx="1370594" cy="305501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>enerating</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t> stop</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
-            <a:effectLst/>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
           </a:endParaRPr>
         </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.36628</cdr:x>
@@ -2461,12 +2293,12 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2482,7 +2314,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
